--- a/DateBase/orders/Dang Nguyen_2025-2-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -517,9 +517,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F11" t="str">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F15" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>304_彩星 浅宝蓝_Tinted Gypso light blue_undefined_0.5kg</v>
+      </c>
+      <c r="F16" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>309_彩星 浅紫_Tinted Gypso light purple_undefined_0.5kg</v>
+      </c>
+      <c r="F17" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>3</v>
+      </c>
+      <c r="C18" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L20"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -577,7 +660,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0105205351812315</v>
+        <v>010520535181231531.513.55166861080</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-2-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-3.xlsx
@@ -599,6 +599,9 @@
       <c r="C20" t="str">
         <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F20" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -660,7 +663,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010520535181231531.513.55166861080</v>
+        <v>010520535181231531.513.55166861086</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-2-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -529,6 +529,9 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <v>3</v>
+      </c>
       <c r="C12" t="str">
         <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
       </c>
@@ -578,7 +581,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="str">
         <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
@@ -603,9 +606,91 @@
         <v>6</v>
       </c>
     </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F21" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">497_小飞燕粉色_delphinium ballkleid
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>5</v>
+      </c>
+      <c r="C29" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F29" t="str">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L30"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -663,7 +748,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010520535181231531.513.55166861086</v>
+        <v>010520535181231531.513.5516686108643446555650</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-2-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-3.xlsx
@@ -687,6 +687,9 @@
       <c r="C30" t="str">
         <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
       </c>
+      <c r="F30" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -748,7 +751,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010520535181231531.513.5516686108643446555650</v>
+        <v>010520535181231531.513.5516686108643446555654</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-2-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -688,12 +688,63 @@
         <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
       </c>
       <c r="F30" t="str">
-        <v>4</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F31" t="str">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F32" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>6</v>
+      </c>
+      <c r="C33" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>110_绣球单瓣浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F36" t="str">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L36"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -751,7 +802,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010520535181231531.513.5516686108643446555654</v>
+        <v>010520535181231531.513.551668610864344655565458050906645</v>
       </c>
     </row>
   </sheetData>
